--- a/src/test/java/resources/TestData.xlsx
+++ b/src/test/java/resources/TestData.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>Keys</t>
   </si>
@@ -19,6 +19,15 @@
     <t>Values</t>
   </si>
   <si>
+    <t>Runmode</t>
+  </si>
+  <si>
+    <t>Set1</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
@@ -29,6 +38,42 @@
   </si>
   <si>
     <t>Software Quality Analyst</t>
+  </si>
+  <si>
+    <t>Set2</t>
+  </si>
+  <si>
+    <t>Anjali Vats</t>
+  </si>
+  <si>
+    <t>Software Developer</t>
+  </si>
+  <si>
+    <t>Set3</t>
+  </si>
+  <si>
+    <t>Deepak</t>
+  </si>
+  <si>
+    <t>Banker</t>
+  </si>
+  <si>
+    <t>Set4</t>
+  </si>
+  <si>
+    <t>Suhaani</t>
+  </si>
+  <si>
+    <t>Love creator</t>
+  </si>
+  <si>
+    <t>Set5</t>
+  </si>
+  <si>
+    <t>Veenu</t>
+  </si>
+  <si>
+    <t>Innovator</t>
   </si>
 </sst>
 </file>
@@ -60,18 +105,32 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -282,6 +341,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="21.43"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -290,24 +352,143 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A18:B18"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A1:Z1001">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(A1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>